--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H2">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I2">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J2">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>122.9525142606396</v>
+        <v>192.0013492806414</v>
       </c>
       <c r="R2">
-        <v>1106.572628345756</v>
+        <v>1728.012143525772</v>
       </c>
       <c r="S2">
-        <v>0.0002561488147213792</v>
+        <v>0.0002740636709834715</v>
       </c>
       <c r="T2">
-        <v>0.0002698760255960887</v>
+        <v>0.0002891486991553431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H3">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I3">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J3">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>809.7205378789938</v>
+        <v>971.9639950437233</v>
       </c>
       <c r="R3">
-        <v>7287.484840910945</v>
+        <v>8747.67595539351</v>
       </c>
       <c r="S3">
-        <v>0.001686902925739186</v>
+        <v>0.001387386190479764</v>
       </c>
       <c r="T3">
-        <v>0.001777305343614804</v>
+        <v>0.001463750780115268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H4">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I4">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J4">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>680.0121887570194</v>
+        <v>1132.82878996451</v>
       </c>
       <c r="R4">
-        <v>6120.109698813176</v>
+        <v>10195.45910968059</v>
       </c>
       <c r="S4">
-        <v>0.001416679579052435</v>
+        <v>0.001617005390517538</v>
       </c>
       <c r="T4">
-        <v>0.001492600521121602</v>
+        <v>0.001706008693226332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H5">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I5">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J5">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>300.3366628026068</v>
+        <v>346.035058406171</v>
       </c>
       <c r="R5">
-        <v>1802.019976815641</v>
+        <v>2076.210350437026</v>
       </c>
       <c r="S5">
-        <v>0.0006256958684975011</v>
+        <v>0.0004939321455348599</v>
       </c>
       <c r="T5">
-        <v>0.0004394849257339543</v>
+        <v>0.0003474127911953365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H6">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I6">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J6">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>700.0501766189165</v>
+        <v>1313.100558700013</v>
       </c>
       <c r="R6">
-        <v>6300.451589570248</v>
+        <v>11817.90502830012</v>
       </c>
       <c r="S6">
-        <v>0.001458425019323349</v>
+        <v>0.001874326200498517</v>
       </c>
       <c r="T6">
-        <v>0.001536583131462109</v>
+        <v>0.001977492969871252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
         <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J7">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>648.6526758573565</v>
+        <v>843.8476749663192</v>
       </c>
       <c r="R7">
-        <v>5837.874082716207</v>
+        <v>7594.629074696873</v>
       </c>
       <c r="S7">
-        <v>0.001351347836080018</v>
+        <v>0.001204512324619661</v>
       </c>
       <c r="T7">
-        <v>0.001423767600079826</v>
+        <v>0.001270811160525387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
         <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J8">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
-        <v>4271.790591272251</v>
+        <v>4271.790591272252</v>
       </c>
       <c r="R8">
         <v>38446.11532145026</v>
       </c>
       <c r="S8">
-        <v>0.008899485327910973</v>
+        <v>0.00609757491550487</v>
       </c>
       <c r="T8">
-        <v>0.009376415552653573</v>
+        <v>0.006433197980942227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
         <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J9">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>3587.496591715196</v>
+        <v>4978.792826862927</v>
       </c>
       <c r="R9">
-        <v>32287.46932543677</v>
+        <v>44809.13544176635</v>
       </c>
       <c r="S9">
-        <v>0.007473885388279615</v>
+        <v>0.007106753386413866</v>
       </c>
       <c r="T9">
-        <v>0.00787441662200764</v>
+        <v>0.007497923710666956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
         <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J10">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>1584.466825721065</v>
+        <v>1520.827226407013</v>
       </c>
       <c r="R10">
-        <v>9506.800954326387</v>
+        <v>9124.963358442077</v>
       </c>
       <c r="S10">
-        <v>0.003300943472481094</v>
+        <v>0.002170836268402941</v>
       </c>
       <c r="T10">
-        <v>0.002318562371746152</v>
+        <v>0.001526882374536013</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
         <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J11">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>3693.209716197252</v>
+        <v>5771.088888736792</v>
       </c>
       <c r="R11">
-        <v>33238.88744577527</v>
+        <v>51939.79999863113</v>
       </c>
       <c r="S11">
-        <v>0.007694119124038532</v>
+        <v>0.008237680684771098</v>
       </c>
       <c r="T11">
-        <v>0.008106452852093052</v>
+        <v>0.008691099573727558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H12">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I12">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J12">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>12219.74207799553</v>
+        <v>7249.026407849544</v>
       </c>
       <c r="R12">
-        <v>109977.6787019598</v>
+        <v>65241.2376706459</v>
       </c>
       <c r="S12">
-        <v>0.02545757171621775</v>
+        <v>0.01034729597388138</v>
       </c>
       <c r="T12">
-        <v>0.02682186245356387</v>
+        <v>0.01091683242761336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H13">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I13">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J13">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>80474.77668624331</v>
+        <v>36696.57892482993</v>
       </c>
       <c r="R13">
-        <v>724272.9901761897</v>
+        <v>330269.2103234694</v>
       </c>
       <c r="S13">
-        <v>0.1676543077390963</v>
+        <v>0.05238087737588419</v>
       </c>
       <c r="T13">
-        <v>0.1766390303070745</v>
+        <v>0.05526402860876035</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H14">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I14">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J14">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>67583.60011157666</v>
+        <v>42770.04221476556</v>
       </c>
       <c r="R14">
-        <v>608252.4010041899</v>
+        <v>384930.3799328901</v>
       </c>
       <c r="S14">
-        <v>0.1407979264782379</v>
+        <v>0.061050168769197</v>
       </c>
       <c r="T14">
-        <v>0.1483433950356113</v>
+        <v>0.06441049563220685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H15">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I15">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J15">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>29849.21925414133</v>
+        <v>13064.58150333949</v>
       </c>
       <c r="R15">
-        <v>179095.315524848</v>
+        <v>78387.48902003697</v>
       </c>
       <c r="S15">
-        <v>0.06218532559731894</v>
+        <v>0.01864844794103222</v>
       </c>
       <c r="T15">
-        <v>0.04367858983551628</v>
+        <v>0.01311659791577118</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H16">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I16">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J16">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>69575.09288345544</v>
+        <v>49576.21736431264</v>
       </c>
       <c r="R16">
-        <v>626175.8359510988</v>
+        <v>446185.9562788138</v>
       </c>
       <c r="S16">
-        <v>0.144946833201378</v>
+        <v>0.07076533667728745</v>
       </c>
       <c r="T16">
-        <v>0.1527146448429854</v>
+        <v>0.07466040636506537</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H17">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I17">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J17">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>884.4204271256729</v>
+        <v>2417.987097610223</v>
       </c>
       <c r="R17">
-        <v>5306.522562754037</v>
+        <v>14507.92258566134</v>
       </c>
       <c r="S17">
-        <v>0.001842526323970747</v>
+        <v>0.003451446684330894</v>
       </c>
       <c r="T17">
-        <v>0.001294179145848672</v>
+        <v>0.002427614272739532</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H18">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I18">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J18">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>5824.4712462348</v>
+        <v>12240.5202263564</v>
       </c>
       <c r="R18">
-        <v>34946.8274774088</v>
+        <v>73443.12135813838</v>
       </c>
       <c r="S18">
-        <v>0.0121342081947112</v>
+        <v>0.01747217881828139</v>
       </c>
       <c r="T18">
-        <v>0.008522993127793504</v>
+        <v>0.0122892556526163</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H19">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I19">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J19">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>4891.454835614343</v>
+        <v>14266.38619050457</v>
       </c>
       <c r="R19">
-        <v>29348.72901368606</v>
+        <v>85598.31714302742</v>
       </c>
       <c r="S19">
-        <v>0.01019044113038421</v>
+        <v>0.02036390986670948</v>
       </c>
       <c r="T19">
-        <v>0.007157703109239923</v>
+        <v>0.0143231875681687</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H20">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I20">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J20">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>2160.377778320993</v>
+        <v>4357.825138634497</v>
       </c>
       <c r="R20">
-        <v>8641.511113283972</v>
+        <v>17431.30055453799</v>
       </c>
       <c r="S20">
-        <v>0.004500747386867225</v>
+        <v>0.00622038105186714</v>
       </c>
       <c r="T20">
-        <v>0.002107531502820454</v>
+        <v>0.002916783830955351</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H21">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I21">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J21">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>5035.591829397083</v>
+        <v>16536.65570943743</v>
       </c>
       <c r="R21">
-        <v>30213.5509763825</v>
+        <v>99219.93425662458</v>
       </c>
       <c r="S21">
-        <v>0.01049072388862603</v>
+        <v>0.02360450375217835</v>
       </c>
       <c r="T21">
-        <v>0.007368619869841196</v>
+        <v>0.01660249612716554</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H22">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I22">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J22">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>8709.803987805457</v>
+        <v>23299.45509238143</v>
       </c>
       <c r="R22">
-        <v>78388.23589024911</v>
+        <v>209695.0958314329</v>
       </c>
       <c r="S22">
-        <v>0.01814526511594985</v>
+        <v>0.03325775687752638</v>
       </c>
       <c r="T22">
-        <v>0.01911768375038738</v>
+        <v>0.03508833222386988</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H23">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I23">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J23">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>57359.60108043224</v>
+        <v>117948.2932738754</v>
       </c>
       <c r="R23">
-        <v>516236.4097238901</v>
+        <v>1061534.639464879</v>
       </c>
       <c r="S23">
-        <v>0.1194981161466769</v>
+        <v>0.1683599743542668</v>
       </c>
       <c r="T23">
-        <v>0.1259021115790206</v>
+        <v>0.1776268536419738</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H24">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I24">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J24">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>48171.22210967463</v>
+        <v>137469.3126794402</v>
       </c>
       <c r="R24">
-        <v>433540.9989870717</v>
+        <v>1237223.814114962</v>
       </c>
       <c r="S24">
-        <v>0.1003558285999484</v>
+        <v>0.1962243735351745</v>
       </c>
       <c r="T24">
-        <v>0.1057339742033007</v>
+        <v>0.207024966668018</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H25">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I25">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J25">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>21275.47760281743</v>
+        <v>41991.51898635676</v>
       </c>
       <c r="R25">
-        <v>127652.8656169046</v>
+        <v>251949.1139181406</v>
       </c>
       <c r="S25">
-        <v>0.04432352118510136</v>
+        <v>0.05993890088111695</v>
       </c>
       <c r="T25">
-        <v>0.0311325683883422</v>
+        <v>0.04215870751586831</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H26">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I26">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J26">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>49590.68837790546</v>
+        <v>159345.3775915555</v>
       </c>
       <c r="R26">
-        <v>446316.1954011492</v>
+        <v>1434108.398324</v>
       </c>
       <c r="S26">
-        <v>0.1033130239393909</v>
+        <v>0.2274503762635393</v>
       </c>
       <c r="T26">
-        <v>0.1088496479025451</v>
+        <v>0.2399697128152459</v>
       </c>
     </row>
   </sheetData>
